--- a/results/mp/logistic/corona/confidence/42/topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,9 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -64,15 +55,15 @@
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
@@ -82,52 +73,64 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>join</t>
@@ -136,43 +139,46 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>to</t>
@@ -536,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -655,37 +661,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6551724137931034</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6052631578947368</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,37 +761,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5588235294117647</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>336</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4444444444444444</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C8">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8224543080939948</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>315</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>315</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.392156862745098</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8207547169811321</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,37 +961,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3372093023255814</v>
+        <v>0.006121134020618557</v>
       </c>
       <c r="C10">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>342</v>
+        <v>3085</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,213 +1011,141 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3220338983050847</v>
+        <v>0.00408321991055804</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>5122</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.804177545691906</v>
+      </c>
+      <c r="L11">
+        <v>308</v>
+      </c>
+      <c r="M11">
+        <v>308</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L12">
+        <v>85</v>
+      </c>
+      <c r="M12">
+        <v>85</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>0.796875</v>
+      </c>
+      <c r="L13">
+        <v>102</v>
+      </c>
+      <c r="M13">
+        <v>102</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K11">
-        <v>0.7926829268292683</v>
-      </c>
-      <c r="L11">
-        <v>65</v>
-      </c>
-      <c r="M11">
-        <v>65</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2147651006711409</v>
-      </c>
-      <c r="C12">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>32</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>117</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.78125</v>
-      </c>
-      <c r="L12">
-        <v>125</v>
-      </c>
-      <c r="M12">
-        <v>125</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.15</v>
-      </c>
-      <c r="C13">
-        <v>54</v>
-      </c>
-      <c r="D13">
-        <v>54</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>306</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="K14">
+        <v>0.7816901408450704</v>
+      </c>
+      <c r="L14">
+        <v>111</v>
+      </c>
+      <c r="M14">
+        <v>111</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7746478873239436</v>
-      </c>
-      <c r="L13">
-        <v>110</v>
-      </c>
-      <c r="M13">
-        <v>110</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.003691470759665825</v>
-      </c>
-      <c r="C14">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>37</v>
-      </c>
-      <c r="E14">
-        <v>0.49</v>
-      </c>
-      <c r="F14">
-        <v>0.51</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>5128</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="L14">
-        <v>37</v>
-      </c>
-      <c r="M14">
-        <v>37</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1223,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1249,21 +1183,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.765625</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1275,21 +1209,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1301,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7435897435897436</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1327,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6744186046511628</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1353,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1379,21 +1313,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1405,21 +1339,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6349206349206349</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1431,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.6147058823529412</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L24">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1457,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5846153846153846</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1483,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5732217573221757</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L26">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="M26">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1509,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5627118644067797</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1535,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5428571428571428</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1561,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5428571428571428</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1587,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5425531914893617</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1613,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5168539325842697</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1639,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1665,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.3424657534246575</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1691,85 +1625,241 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.01587301587301587</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L34">
         <v>19</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N34">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1178</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.00463821892393321</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N35">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.4399999999999999</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>4292</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L36">
+        <v>25</v>
+      </c>
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>54</v>
       </c>
-      <c r="K36">
-        <v>0.004616619831393015</v>
-      </c>
-      <c r="L36">
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38">
+        <v>0.01834862385321101</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
         <v>23</v>
       </c>
-      <c r="M36">
-        <v>37</v>
-      </c>
-      <c r="N36">
-        <v>0.62</v>
-      </c>
-      <c r="O36">
-        <v>0.38</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>4959</v>
+      <c r="N38">
+        <v>0.96</v>
+      </c>
+      <c r="O38">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>0.00900225056264066</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>31</v>
+      </c>
+      <c r="N39">
+        <v>0.77</v>
+      </c>
+      <c r="O39">
+        <v>0.23</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40">
+        <v>0.005097312326227989</v>
+      </c>
+      <c r="L40">
+        <v>22</v>
+      </c>
+      <c r="M40">
+        <v>34</v>
+      </c>
+      <c r="N40">
+        <v>0.65</v>
+      </c>
+      <c r="O40">
+        <v>0.35</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41">
+        <v>0.004820245029122314</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>41</v>
+      </c>
+      <c r="N41">
+        <v>0.59</v>
+      </c>
+      <c r="O41">
+        <v>0.41</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <v>0.004276827371695179</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <v>43</v>
+      </c>
+      <c r="N42">
+        <v>0.51</v>
+      </c>
+      <c r="O42">
+        <v>0.49</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>5122</v>
       </c>
     </row>
   </sheetData>
